--- a/biology/Botanique/Sordariomycetes/Sordariomycetes.xlsx
+++ b/biology/Botanique/Sordariomycetes/Sordariomycetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sordariomycetes sont une classe de champignons ascomycètes.
 Les Sordariomycetes sont l'une des classes les plus importantes des Ascomycota. Ils comprennent plus de 600 genres dont plus de 3.000 espèces et représentent un large éventail de champignons agents pathogènes et endophytes des plantes, des agents pathogènes des animaux ainsi que des mycoparasites. 
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les asques formés dans des périthèces sont unituniqués inoperculés avec ou sans anneau et en général octosporés.
 Les anamorphes peuvent être des cœlomycètes ou des hyphomycètes.
@@ -544,7 +558,9 @@
           <t>Parasite de l'homme et des végétaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Essentiellement saprophytes, les Sordariomycètes comptent dans leurs rangs de redoutables parasites des végétaux comme Ophiostoma ulmi agent de la graphiose de l'orme, Magnaporthe grisea agent de la pyriculariose ou Cryphonectria parasitica agent du chancre du châtaignier. D'autres comme les Fusarium ou l'ergot peuvent produire des toxines cancérigènes ou causer de graves intoxications.
 </t>
@@ -575,9 +591,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Sordariomycetes présentent six sous-classes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Sordariomycetes présentent six sous-classes :
 la sous-classe des Diaporthomycetidae
 la sous-classe des Lulworthiomycetidae
 la sous-classe des Meliolomycetidae
@@ -585,7 +603,7 @@
 la sous-classe des Sordariomycetidae,
 la sous-classe des Xylariomycetidae.
 Une vaste majorité des Pyrenomycetes font désormais partie des Sordariomycetes.
-NB : Les Glomerellaceae sont exclues de l'ordre des Phyllachorales et placées dans les Glomerellales[3].
+NB : Les Glomerellaceae sont exclues de l'ordre des Phyllachorales et placées dans les Glomerellales.
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (4 octobre 2014)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (4 octobre 2014) :
 ordre des Boliniales
 ordre des Calosphaeriales
 ordre des Chaetosphaeriales
@@ -664,9 +684,11 @@
           <t>Liste des sous-classes, ordres, familles et genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (4 octobre 2014)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (4 octobre 2014) :
 genre Abyssomyces Kohlm.
 genre Oceanitis Kohlm.
 genre Pontogeneia Kohlm.
